--- a/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/sri_lanka/model_input_variables_sri_lanka_se_calibrated.xlsx
+++ b/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/sri_lanka/model_input_variables_sri_lanka_se_calibrated.xlsx
@@ -594,112 +594,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>123.488503</v>
+        <v>85.14095539</v>
       </c>
       <c r="K2">
-        <v>127.06110526</v>
+        <v>88.01228221</v>
       </c>
       <c r="L2">
-        <v>130.63370752</v>
+        <v>94.3762378</v>
       </c>
       <c r="M2">
-        <v>134.20630978</v>
+        <v>94.4938712</v>
       </c>
       <c r="N2">
-        <v>137.77891204</v>
+        <v>89.01497834</v>
       </c>
       <c r="O2">
-        <v>141.3515143</v>
+        <v>84.44051648999999</v>
       </c>
       <c r="P2">
-        <v>147.35402262</v>
+        <v>88.54804912</v>
       </c>
       <c r="Q2">
-        <v>153.35653094</v>
+        <v>91.91287499000001</v>
       </c>
       <c r="R2">
-        <v>159.35903926</v>
+        <v>95.40556424</v>
       </c>
       <c r="S2">
-        <v>165.36154758</v>
+        <v>99.03097568</v>
       </c>
       <c r="T2">
-        <v>171.3640559</v>
+        <v>102.7941528</v>
       </c>
       <c r="U2">
-        <v>180.48816062</v>
+        <v>106.7003306</v>
       </c>
       <c r="V2">
-        <v>189.61226534</v>
+        <v>110.7549431</v>
       </c>
       <c r="W2">
-        <v>198.73637006</v>
+        <v>114.963631</v>
       </c>
       <c r="X2">
-        <v>207.86047478</v>
+        <v>119.3322489</v>
       </c>
       <c r="Y2">
-        <v>216.9845795</v>
+        <v>123.8668744</v>
       </c>
       <c r="Z2">
-        <v>226.52558736</v>
+        <v>128.5738156</v>
       </c>
       <c r="AA2">
-        <v>236.06659522</v>
+        <v>133.4596206</v>
       </c>
       <c r="AB2">
-        <v>245.60760308</v>
+        <v>138.5310862</v>
       </c>
       <c r="AC2">
-        <v>255.14861094</v>
+        <v>143.7952675</v>
       </c>
       <c r="AD2">
-        <v>264.6896188</v>
+        <v>149.2594876</v>
       </c>
       <c r="AE2">
-        <v>274.81234146</v>
+        <v>154.9313482</v>
       </c>
       <c r="AF2">
-        <v>284.93506412</v>
+        <v>160.8187394</v>
       </c>
       <c r="AG2">
-        <v>295.05778678</v>
+        <v>166.9298515</v>
       </c>
       <c r="AH2">
-        <v>305.18050944</v>
+        <v>173.2731859</v>
       </c>
       <c r="AI2">
-        <v>315.3032321</v>
+        <v>179.8575669</v>
       </c>
       <c r="AJ2">
-        <v>325.77582346</v>
+        <v>186.6921545</v>
       </c>
       <c r="AK2">
-        <v>336.24841482</v>
+        <v>193.7864563</v>
       </c>
       <c r="AL2">
-        <v>346.72100618</v>
+        <v>201.1503417</v>
       </c>
       <c r="AM2">
-        <v>357.19359754</v>
+        <v>208.7940546</v>
       </c>
       <c r="AN2">
-        <v>367.6661889</v>
+        <v>216.7282287</v>
       </c>
       <c r="AO2">
-        <v>378.7015995</v>
+        <v>224.9639014</v>
       </c>
       <c r="AP2">
-        <v>389.7370101</v>
+        <v>233.5125297</v>
       </c>
       <c r="AQ2">
-        <v>400.7724207</v>
+        <v>242.3860058</v>
       </c>
       <c r="AR2">
-        <v>411.8078313</v>
+        <v>251.596674</v>
       </c>
       <c r="AS2">
-        <v>422.8432419</v>
+        <v>261.1573476</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -716,112 +716,112 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="K3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="L3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="M3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="N3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="O3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="P3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="Q3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="R3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="S3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="T3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="U3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="V3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="W3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="X3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="Y3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="Z3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AA3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AB3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AC3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AD3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AE3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AF3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AG3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AH3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AI3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AJ3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AK3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AL3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AM3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AN3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AO3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AP3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AQ3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AR3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
       <c r="AS3">
-        <v>6561000</v>
+        <v>6552500</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1573,112 +1573,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="K10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="L10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="M10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="N10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="O10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="P10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="Q10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="R10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="S10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="T10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="U10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="V10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="W10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="X10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="Y10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="Z10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AA10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AB10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AC10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AD10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AE10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AF10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AG10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AH10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AI10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AJ10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AK10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AL10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AM10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AN10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AO10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AP10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AQ10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AR10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
       <c r="AS10">
-        <v>4.181218872870249</v>
+        <v>3.653</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1695,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>17141716.8</v>
+        <v>17441469.6</v>
       </c>
       <c r="K11">
-        <v>17320518.67</v>
+        <v>17502271.79</v>
       </c>
       <c r="L11">
-        <v>17501735.04</v>
+        <v>17553000.5</v>
       </c>
       <c r="M11">
         <v>17666250.8</v>
@@ -1713,94 +1713,94 @@
         <v>17817297.53</v>
       </c>
       <c r="P11">
-        <v>18314402.7085542</v>
+        <v>17977378.4</v>
       </c>
       <c r="Q11">
-        <v>18389286.3257984</v>
+        <v>17960842.94</v>
       </c>
       <c r="R11">
-        <v>18464169.9430427</v>
+        <v>17968527.09</v>
       </c>
       <c r="S11">
-        <v>18539053.560287</v>
+        <v>17967269.73</v>
       </c>
       <c r="T11">
-        <v>18613937.1775312</v>
+        <v>17957849.84</v>
       </c>
       <c r="U11">
-        <v>18670762.261659</v>
+        <v>17938640.19</v>
       </c>
       <c r="V11">
-        <v>18727587.34578671</v>
+        <v>17910684.98</v>
       </c>
       <c r="W11">
-        <v>18784412.4299144</v>
+        <v>17873450.95</v>
       </c>
       <c r="X11">
-        <v>18841237.5140421</v>
+        <v>17828462.18</v>
       </c>
       <c r="Y11">
-        <v>18898062.5981698</v>
+        <v>17774284.29</v>
       </c>
       <c r="Z11">
-        <v>18942093.2721393</v>
+        <v>17711215.33</v>
       </c>
       <c r="AA11">
-        <v>18986123.9461089</v>
+        <v>17639827.5</v>
       </c>
       <c r="AB11">
-        <v>19030154.6200784</v>
+        <v>17560523.02</v>
       </c>
       <c r="AC11">
-        <v>19074185.294048</v>
+        <v>17472114.79</v>
       </c>
       <c r="AD11">
-        <v>19118215.9680175</v>
+        <v>17374627.32</v>
       </c>
       <c r="AE11">
-        <v>19146126.2009894</v>
+        <v>17268906.21</v>
       </c>
       <c r="AF11">
-        <v>19174036.43396131</v>
+        <v>17153965.85</v>
       </c>
       <c r="AG11">
-        <v>19201946.6669332</v>
+        <v>17030110.77</v>
       </c>
       <c r="AH11">
-        <v>19229856.8999051</v>
+        <v>16899825.84</v>
       </c>
       <c r="AI11">
-        <v>19257767.132877</v>
+        <v>16764039.27</v>
       </c>
       <c r="AJ11">
-        <v>19261876.5518396</v>
+        <v>16623199.05</v>
       </c>
       <c r="AK11">
-        <v>19265985.9708021</v>
+        <v>16476457.36</v>
       </c>
       <c r="AL11">
-        <v>19270095.3897647</v>
+        <v>16325052.93</v>
       </c>
       <c r="AM11">
-        <v>19274204.8087273</v>
+        <v>16167630.76</v>
       </c>
       <c r="AN11">
-        <v>19278314.2276899</v>
+        <v>16005364.68</v>
       </c>
       <c r="AO11">
-        <v>19260811.1720199</v>
+        <v>15837808.2</v>
       </c>
       <c r="AP11">
-        <v>19243308.1163499</v>
+        <v>15665144.12</v>
       </c>
       <c r="AQ11">
-        <v>19225805.0606799</v>
+        <v>15488419.4</v>
       </c>
       <c r="AR11">
-        <v>19208302.00501</v>
+        <v>15307295</v>
       </c>
       <c r="AS11">
-        <v>19190798.94934</v>
+        <v>15120549.8</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1817,13 +1817,13 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>3828283.2</v>
+        <v>3895227.404</v>
       </c>
       <c r="K12">
-        <v>3882481.33</v>
+        <v>3923222.206</v>
       </c>
       <c r="L12">
-        <v>3942264.96</v>
+        <v>3953812.502</v>
       </c>
       <c r="M12">
         <v>4003749.2</v>
@@ -1835,94 +1835,94 @@
         <v>4101702.47</v>
       </c>
       <c r="P12">
-        <v>4234496.55744583</v>
+        <v>4178621.6</v>
       </c>
       <c r="Q12">
-        <v>4270091.43620156</v>
+        <v>4220157.06</v>
       </c>
       <c r="R12">
-        <v>4305686.31495729</v>
+        <v>4272776.911</v>
       </c>
       <c r="S12">
-        <v>4341281.19371302</v>
+        <v>4329054.268</v>
       </c>
       <c r="T12">
-        <v>4376876.07246875</v>
+        <v>4389180.162</v>
       </c>
       <c r="U12">
-        <v>4409024.08034104</v>
+        <v>4453031.811</v>
       </c>
       <c r="V12">
-        <v>4441172.08821333</v>
+        <v>4520571.022</v>
       </c>
       <c r="W12">
-        <v>4473320.09608562</v>
+        <v>4592487.046</v>
       </c>
       <c r="X12">
-        <v>4505468.10395791</v>
+        <v>4668587.816</v>
       </c>
       <c r="Y12">
-        <v>4537616.1118302</v>
+        <v>4749043.709</v>
       </c>
       <c r="Z12">
-        <v>4567346.92186065</v>
+        <v>4834184.668</v>
       </c>
       <c r="AA12">
-        <v>4597077.731891099</v>
+        <v>4923844.504</v>
       </c>
       <c r="AB12">
-        <v>4626808.54192155</v>
+        <v>5018388.981</v>
       </c>
       <c r="AC12">
-        <v>4656539.351952</v>
+        <v>5118021.212</v>
       </c>
       <c r="AD12">
-        <v>4686270.16198245</v>
+        <v>5222398.679</v>
       </c>
       <c r="AE12">
-        <v>4712566.56301056</v>
+        <v>5331711.792</v>
       </c>
       <c r="AF12">
-        <v>4738862.96403867</v>
+        <v>5446184.147</v>
       </c>
       <c r="AG12">
-        <v>4765159.36506678</v>
+        <v>5565233.227</v>
       </c>
       <c r="AH12">
-        <v>4791455.76609489</v>
+        <v>5684768.156</v>
       </c>
       <c r="AI12">
-        <v>4817752.167123</v>
+        <v>5804672.726</v>
       </c>
       <c r="AJ12">
-        <v>4838414.67416043</v>
+        <v>5924680.949</v>
       </c>
       <c r="AK12">
-        <v>4859077.18119786</v>
+        <v>6044978.637</v>
       </c>
       <c r="AL12">
-        <v>4879739.68823529</v>
+        <v>6165273.066</v>
       </c>
       <c r="AM12">
-        <v>4900402.19527272</v>
+        <v>6284917.236</v>
       </c>
       <c r="AN12">
-        <v>4921064.70231015</v>
+        <v>6404521.32</v>
       </c>
       <c r="AO12">
-        <v>4936301.99198012</v>
+        <v>6523449.796</v>
       </c>
       <c r="AP12">
-        <v>4951539.28165009</v>
+        <v>6641931.879</v>
       </c>
       <c r="AQ12">
-        <v>4966776.57132006</v>
+        <v>6759622.601</v>
       </c>
       <c r="AR12">
-        <v>4982013.86099003</v>
+        <v>6876868.998</v>
       </c>
       <c r="AS12">
-        <v>4997251.15066</v>
+        <v>6992306.196</v>
       </c>
     </row>
   </sheetData>
